--- a/biology/Histoire de la zoologie et de la botanique/Sven_O._Kullander/Sven_O._Kullander.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sven_O._Kullander/Sven_O._Kullander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sven Oscar Kullander (né en 1952 à Sollefteå) est un ichtyologiste suédois.
 Il est conservateur chargé des collections d’ichtyologie et d’herpétologie du Muséum suédois d'histoire naturelle. Il étudie en particulier les poissons d’eau douce des Tropiques (en particulier les cichlidés). Collaborateur de FishBase, il s’intéresse également à la protection des poissons d’eau douce de Suède.
